--- a/excel_files/Portfolio.xlsx
+++ b/excel_files/Portfolio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,16 @@
           <t>Portfolio criteria</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PortfolioName</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Portfoliocriteria</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -464,6 +474,27 @@
       <c r="C2" t="inlineStr">
         <is>
           <t>test</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Arcelo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Arcel</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Arcelo</t>
         </is>
       </c>
     </row>
